--- a/INCY.xlsx
+++ b/INCY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA3112-3244-4979-967F-18D0BF98808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2091493C-3FA4-4E32-BBDE-A5A8D0976B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1395" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{EE83D29F-F538-45D1-A7C5-3904247C5774}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{EE83D29F-F538-45D1-A7C5-3904247C5774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D21DA1-10F1-4563-8E6E-7F25228F570D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,8 +725,8 @@
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>59</v>
+      <c r="D2" s="4">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -746,7 +746,7 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>11420.624099999999</v>
+        <v>12775.6134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
       </c>
       <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>9220.1240999999991</v>
+        <v>10575.1134</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +792,10 @@
   <dimension ref="A1:DM36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -870,6 +870,26 @@
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
+      <c r="U1" s="2">
+        <f t="shared" ref="U1" si="1">T1+1</f>
+        <v>2030</v>
+      </c>
+      <c r="V1" s="2">
+        <f t="shared" ref="V1" si="2">U1+1</f>
+        <v>2031</v>
+      </c>
+      <c r="W1" s="2">
+        <f t="shared" ref="W1" si="3">V1+1</f>
+        <v>2032</v>
+      </c>
+      <c r="X1" s="2">
+        <f t="shared" ref="X1" si="4">W1+1</f>
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="2">
+        <f t="shared" ref="Y1" si="5">X1+1</f>
+        <v>2034</v>
+      </c>
     </row>
     <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -888,15 +908,15 @@
         <v>1070</v>
       </c>
       <c r="R2" s="1">
-        <f t="shared" ref="R2:T2" si="1">Q2*1.07</f>
+        <f t="shared" ref="R2:T2" si="6">Q2*1.07</f>
         <v>1144.9000000000001</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1225.0430000000001</v>
       </c>
       <c r="T2" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1310.7960100000003</v>
       </c>
     </row>
@@ -917,15 +937,15 @@
         <v>3270.0000000000005</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:T3" si="2">Q3*1.09</f>
+        <f t="shared" ref="R3:T3" si="7">Q3*1.09</f>
         <v>3564.3000000000006</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3885.0870000000009</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4234.7448300000015</v>
       </c>
     </row>
@@ -953,19 +973,19 @@
         <v>4000</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:T4" si="3">SUM(Q2:Q3)</f>
+        <f t="shared" ref="Q4:T4" si="8">SUM(Q2:Q3)</f>
         <v>4340</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4709.2000000000007</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5110.130000000001</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5545.5408400000015</v>
       </c>
     </row>
@@ -993,19 +1013,19 @@
         <v>631.4697000000001</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" ref="Q5:T5" si="4">P5*1.09</f>
+        <f t="shared" ref="Q5:T5" si="9">P5*1.09</f>
         <v>688.3019730000002</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>750.24915057000032</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>817.77157412130043</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>891.37101579221758</v>
       </c>
     </row>
@@ -1018,15 +1038,15 @@
         <v>855.86</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:E6" si="5">SUM(C4:C5)</f>
+        <f t="shared" ref="C6:E6" si="10">SUM(C4:C5)</f>
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F6" s="3">
@@ -1038,31 +1058,31 @@
         <v>1147.5520000000001</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:I6" si="6">G6*1.09</f>
+        <f t="shared" ref="H6:I6" si="11">G6*1.09</f>
         <v>1250.8316800000002</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1363.4065312000002</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" ref="K6:L6" si="7">SUM(K4:K5)</f>
+        <f t="shared" ref="K6:L6" si="12">SUM(K4:K5)</f>
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ref="M6" si="8">SUM(M4:M5)</f>
+        <f t="shared" ref="M6" si="13">SUM(M4:M5)</f>
         <v>3229.6400000000003</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ref="N6" si="9">SUM(N4:N5)</f>
+        <f t="shared" ref="N6" si="14">SUM(N4:N5)</f>
         <v>3688.7</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6" si="10">SUM(O4:O5)</f>
+        <f t="shared" ref="O6" si="15">SUM(O4:O5)</f>
         <v>4198.2300000000005</v>
       </c>
       <c r="P6" s="3">
@@ -1101,11 +1121,11 @@
         <v>79.774920000000009</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:I7" si="11">G7*(1+H21)</f>
+        <f t="shared" ref="H7:I7" si="16">G7*(1+H21)</f>
         <v>86.954662800000023</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>94.780582452000033</v>
       </c>
       <c r="M7" s="1">
@@ -1133,11 +1153,11 @@
         <v>476.63411000000002</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:I8" si="12">G8*(1+H21)</f>
+        <f t="shared" ref="H8:I8" si="17">G8*(1+H21)</f>
         <v>519.5311799000001</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>566.2889860910002</v>
       </c>
       <c r="M8" s="1">
@@ -1165,11 +1185,11 @@
         <v>355.00319000000002</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" ref="H9:I9" si="13">G9*(1+H21)</f>
+        <f t="shared" ref="H9:I9" si="18">G9*(1+H21)</f>
         <v>386.95347710000004</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>421.7792900390001</v>
       </c>
       <c r="M9" s="1">
@@ -1191,51 +1211,51 @@
         <v>790.47199999999998</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:I10" si="14">SUM(C7:C9)</f>
+        <f t="shared" ref="C10:I10" si="19">SUM(C7:C9)</f>
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>836.1579999999999</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>911.41222000000005</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>993.43931980000025</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1082.8488585820005</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" ref="K10:L10" si="15">SUM(K7:K9)</f>
+        <f t="shared" ref="K10:L10" si="20">SUM(K7:K9)</f>
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" ref="M10" si="16">SUM(M7:M9)</f>
+        <f t="shared" ref="M10" si="21">SUM(M7:M9)</f>
         <v>2785.1400000000003</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" ref="N10" si="17">SUM(N7:N9)</f>
+        <f t="shared" ref="N10" si="22">SUM(N7:N9)</f>
         <v>3043.89</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" ref="O10" si="18">SUM(O7:O9)</f>
+        <f t="shared" ref="O10" si="23">SUM(O7:O9)</f>
         <v>4161.2</v>
       </c>
       <c r="P10" s="1">
@@ -1247,15 +1267,15 @@
         <v>4072.9245981300005</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" ref="R10:T10" si="19">R6*R26</f>
+        <f t="shared" ref="R10:T10" si="24">R6*R26</f>
         <v>3979.9384307655309</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>3889.2962227809867</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>3800.9320817267489</v>
       </c>
     </row>
@@ -1268,71 +1288,71 @@
         <v>65.388000000000034</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:I11" si="20">C6-C10</f>
+        <f t="shared" ref="C11:I11" si="25">C6-C10</f>
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>216.64200000000005</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>236.13978000000009</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>257.39236019999998</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>280.55767261799974</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="K11:L11" si="21">K6-K10</f>
+        <f t="shared" ref="K11:L11" si="26">K6-K10</f>
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" ref="M11" si="22">M6-M10</f>
+        <f t="shared" ref="M11" si="27">M6-M10</f>
         <v>444.5</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11" si="23">N6-N10</f>
+        <f t="shared" ref="N11" si="28">N6-N10</f>
         <v>644.80999999999995</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11" si="24">O6-O10</f>
+        <f t="shared" ref="O11" si="29">O6-O10</f>
         <v>37.030000000000655</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ref="P11:T11" si="25">P6-P10</f>
+        <f t="shared" ref="P11:T11" si="30">P6-P10</f>
         <v>463.14696999999978</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>955.37737487000004</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1479.5107198044698</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2038.6053513403149</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2635.9797740654703</v>
       </c>
     </row>
@@ -1350,15 +1370,15 @@
       </c>
       <c r="G12" s="1">
         <f>F32*$W$18/4</f>
-        <v>33.0075</v>
+        <v>22.004999999999999</v>
       </c>
       <c r="H12" s="1">
         <f>G32*$W$18/4</f>
-        <v>36.196895267999999</v>
+        <v>24.044343762</v>
       </c>
       <c r="I12" s="1">
         <f>H32*$W$18/4</f>
-        <v>39.675927945295797</v>
+        <v>26.2676937232998</v>
       </c>
       <c r="M12" s="1">
         <f>40.45-2.66</f>
@@ -1374,23 +1394,23 @@
       </c>
       <c r="P12" s="1">
         <f>SUM(F12:I12)</f>
-        <v>153.62032321329579</v>
+        <v>117.0570374852998</v>
       </c>
       <c r="Q12" s="1">
         <f>P32*$W$18</f>
-        <v>173.88278444788341</v>
+        <v>114.76645646958427</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" ref="R12:T12" si="26">Q32*$W$18</f>
-        <v>228.76482819073254</v>
+        <f t="shared" ref="R12:T12" si="31">Q32*$W$18</f>
+        <v>149.43911660498679</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="26"/>
-        <v>311.78701982329937</v>
+        <f t="shared" si="31"/>
+        <v>202.2170913046532</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="26"/>
-        <v>426.01608906185101</v>
+        <f t="shared" si="31"/>
+        <v>274.81973844635019</v>
       </c>
     </row>
     <row r="13" spans="1:114" x14ac:dyDescent="0.2">
@@ -1410,32 +1430,32 @@
         <v>87.65800000000003</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:I14" si="27">SUM(C11:C13)</f>
+        <f t="shared" ref="C14:I14" si="32">SUM(C11:C13)</f>
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>261.38200000000006</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="27"/>
-        <v>269.14728000000008</v>
+        <f t="shared" si="32"/>
+        <v>258.14478000000008</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="27"/>
-        <v>293.58925546799998</v>
+        <f t="shared" si="32"/>
+        <v>281.43670396199997</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="27"/>
-        <v>320.23360056329557</v>
+        <f t="shared" si="32"/>
+        <v>306.82536634129951</v>
       </c>
       <c r="K14" s="1">
         <f>SUM(K11:K13)</f>
@@ -1446,36 +1466,36 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" ref="M14:T14" si="28">SUM(M11:M13)</f>
+        <f t="shared" ref="M14:T14" si="33">SUM(M11:M13)</f>
         <v>482.29</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>800.66</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>279.43000000000063</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="28"/>
-        <v>616.7672932132956</v>
+        <f t="shared" si="33"/>
+        <v>580.2040074852996</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="28"/>
-        <v>1129.2601593178833</v>
+        <f t="shared" si="33"/>
+        <v>1070.1438313395843</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="28"/>
-        <v>1708.2755479952023</v>
+        <f t="shared" si="33"/>
+        <v>1628.9498364094566</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="28"/>
-        <v>2350.3923711636144</v>
+        <f t="shared" si="33"/>
+        <v>2240.8224426449679</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="28"/>
-        <v>3061.9958631273212</v>
+        <f t="shared" si="33"/>
+        <v>2910.7995125118205</v>
       </c>
     </row>
     <row r="15" spans="1:114" x14ac:dyDescent="0.2">
@@ -1490,15 +1510,15 @@
       </c>
       <c r="G15" s="1">
         <f>G14*G22</f>
-        <v>56.520928800000014</v>
+        <v>54.210403800000016</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15:I15" si="29">H14*H22</f>
-        <v>61.653743648279992</v>
+        <f t="shared" ref="H15:I15" si="34">H14*H22</f>
+        <v>59.10170783201999</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="29"/>
-        <v>67.24905611829206</v>
+        <f t="shared" si="34"/>
+        <v>64.433326931672894</v>
       </c>
       <c r="M15" s="1">
         <v>188.45</v>
@@ -1511,23 +1531,23 @@
       </c>
       <c r="P15" s="1">
         <f>P14*P22</f>
-        <v>117.18578571052616</v>
+        <v>110.23876142220692</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" ref="Q15:T15" si="30">Q14*Q22</f>
-        <v>214.55943027039783</v>
+        <f t="shared" ref="Q15:T15" si="35">Q14*Q22</f>
+        <v>203.32732795452102</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="30"/>
-        <v>324.57235411908846</v>
+        <f t="shared" si="35"/>
+        <v>309.50046891779675</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="30"/>
-        <v>446.57455052108673</v>
+        <f t="shared" si="35"/>
+        <v>425.75626410254392</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="30"/>
-        <v>581.77921399419108</v>
+        <f t="shared" si="35"/>
+        <v>553.05190737724593</v>
       </c>
     </row>
     <row r="16" spans="1:114" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1539,448 +1559,448 @@
         <v>21.047000000000025</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ref="C16:I16" si="31">C14-C15</f>
+        <f t="shared" ref="C16:I16" si="36">C14-C15</f>
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>185.39200000000005</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="31"/>
-        <v>212.62635120000007</v>
+        <f t="shared" si="36"/>
+        <v>203.93437620000006</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="31"/>
-        <v>231.93551181971998</v>
+        <f t="shared" si="36"/>
+        <v>222.33499612997997</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="31"/>
-        <v>252.98454444500351</v>
+        <f t="shared" si="36"/>
+        <v>242.39203940962662</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" ref="K16:L16" si="32">K14-K15</f>
+        <f t="shared" ref="K16:L16" si="37">K14-K15</f>
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" ref="M16" si="33">M14-M15</f>
+        <f t="shared" ref="M16" si="38">M14-M15</f>
         <v>293.84000000000003</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" ref="N16" si="34">N14-N15</f>
+        <f t="shared" ref="N16" si="39">N14-N15</f>
         <v>564.05999999999995</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" ref="O16" si="35">O14-O15</f>
+        <f t="shared" ref="O16" si="40">O14-O15</f>
         <v>-4.5899999999993497</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" ref="P16:Q16" si="36">P14-P15</f>
-        <v>499.58150750276945</v>
+        <f t="shared" ref="P16:Q16" si="41">P14-P15</f>
+        <v>469.96524606309265</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="36"/>
-        <v>914.70072904748554</v>
+        <f t="shared" si="41"/>
+        <v>866.81650338506324</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" ref="R16" si="37">R14-R15</f>
-        <v>1383.7031938761138</v>
+        <f t="shared" ref="R16" si="42">R14-R15</f>
+        <v>1319.4493674916598</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" ref="S16" si="38">S14-S15</f>
-        <v>1903.8178206425277</v>
+        <f t="shared" ref="S16" si="43">S14-S15</f>
+        <v>1815.066178542424</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" ref="T16" si="39">T14-T15</f>
-        <v>2480.21664913313</v>
+        <f t="shared" ref="T16" si="44">T14-T15</f>
+        <v>2357.7476051345748</v>
       </c>
       <c r="U16" s="3">
         <f>T16*(1+$W$19)</f>
-        <v>2356.2058166764732</v>
+        <v>2239.8602248778461</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" ref="V16:CG16" si="40">U16*(1+$W$19)</f>
-        <v>2238.3955258426495</v>
+        <f t="shared" ref="V16:CG16" si="45">U16*(1+$W$19)</f>
+        <v>2127.8672136339537</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="40"/>
-        <v>2126.4757495505169</v>
+        <f t="shared" si="45"/>
+        <v>2021.473852952256</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="40"/>
-        <v>2020.151962072991</v>
+        <f t="shared" si="45"/>
+        <v>1920.4001603046431</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="40"/>
-        <v>1919.1443639693414</v>
+        <f t="shared" si="45"/>
+        <v>1824.3801522894109</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="40"/>
-        <v>1823.1871457708742</v>
+        <f t="shared" si="45"/>
+        <v>1733.1611446749403</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="40"/>
-        <v>1732.0277884823304</v>
+        <f t="shared" si="45"/>
+        <v>1646.5030874411932</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="40"/>
-        <v>1645.4263990582137</v>
+        <f t="shared" si="45"/>
+        <v>1564.1779330691334</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="40"/>
-        <v>1563.155079105303</v>
+        <f t="shared" si="45"/>
+        <v>1485.9690364156766</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="40"/>
-        <v>1484.9973251500378</v>
+        <f t="shared" si="45"/>
+        <v>1411.6705845948927</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="40"/>
-        <v>1410.7474588925359</v>
+        <f t="shared" si="45"/>
+        <v>1341.087055365148</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="40"/>
-        <v>1340.210085947909</v>
+        <f t="shared" si="45"/>
+        <v>1274.0327025968904</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="40"/>
-        <v>1273.1995816505134</v>
+        <f t="shared" si="45"/>
+        <v>1210.3310674670458</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="40"/>
-        <v>1209.5396025679877</v>
+        <f t="shared" si="45"/>
+        <v>1149.8145140936936</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="40"/>
-        <v>1149.0626224395883</v>
+        <f t="shared" si="45"/>
+        <v>1092.3237883890088</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="40"/>
-        <v>1091.6094913176089</v>
+        <f t="shared" si="45"/>
+        <v>1037.7075989695584</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="40"/>
-        <v>1037.0290167517285</v>
+        <f t="shared" si="45"/>
+        <v>985.8222190210804</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="40"/>
-        <v>985.17756591414195</v>
+        <f t="shared" si="45"/>
+        <v>936.53110807002633</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="40"/>
-        <v>935.91868761843477</v>
+        <f t="shared" si="45"/>
+        <v>889.70455266652493</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="40"/>
-        <v>889.12275323751294</v>
+        <f t="shared" si="45"/>
+        <v>845.21932503319863</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" si="40"/>
-        <v>844.66661557563725</v>
+        <f t="shared" si="45"/>
+        <v>802.95835878153866</v>
       </c>
       <c r="AP16" s="3">
-        <f t="shared" si="40"/>
-        <v>802.43328479685533</v>
+        <f t="shared" si="45"/>
+        <v>762.81044084246173</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" si="40"/>
-        <v>762.31162055701247</v>
+        <f t="shared" si="45"/>
+        <v>724.66991880033856</v>
       </c>
       <c r="AR16" s="3">
-        <f t="shared" si="40"/>
-        <v>724.19603952916179</v>
+        <f t="shared" si="45"/>
+        <v>688.43642286032161</v>
       </c>
       <c r="AS16" s="3">
-        <f t="shared" si="40"/>
-        <v>687.98623755270364</v>
+        <f t="shared" si="45"/>
+        <v>654.01460171730548</v>
       </c>
       <c r="AT16" s="3">
-        <f t="shared" si="40"/>
-        <v>653.58692567506841</v>
+        <f t="shared" si="45"/>
+        <v>621.31387163144018</v>
       </c>
       <c r="AU16" s="3">
-        <f t="shared" si="40"/>
-        <v>620.90757939131493</v>
+        <f t="shared" si="45"/>
+        <v>590.2481780498681</v>
       </c>
       <c r="AV16" s="3">
-        <f t="shared" si="40"/>
-        <v>589.86220042174921</v>
+        <f t="shared" si="45"/>
+        <v>560.73576914737464</v>
       </c>
       <c r="AW16" s="3">
-        <f t="shared" si="40"/>
-        <v>560.36909040066178</v>
+        <f t="shared" si="45"/>
+        <v>532.6989806900059</v>
       </c>
       <c r="AX16" s="3">
-        <f t="shared" si="40"/>
-        <v>532.35063588062872</v>
+        <f t="shared" si="45"/>
+        <v>506.06403165550557</v>
       </c>
       <c r="AY16" s="3">
-        <f t="shared" si="40"/>
-        <v>505.73310408659728</v>
+        <f t="shared" si="45"/>
+        <v>480.7608300727303</v>
       </c>
       <c r="AZ16" s="3">
-        <f t="shared" si="40"/>
-        <v>480.44644888226742</v>
+        <f t="shared" si="45"/>
+        <v>456.72278856909378</v>
       </c>
       <c r="BA16" s="3">
-        <f t="shared" si="40"/>
-        <v>456.42412643815402</v>
+        <f t="shared" si="45"/>
+        <v>433.88664914063907</v>
       </c>
       <c r="BB16" s="3">
-        <f t="shared" si="40"/>
-        <v>433.60292011624631</v>
+        <f t="shared" si="45"/>
+        <v>412.19231668360709</v>
       </c>
       <c r="BC16" s="3">
-        <f t="shared" si="40"/>
-        <v>411.92277411043398</v>
+        <f t="shared" si="45"/>
+        <v>391.58270084942671</v>
       </c>
       <c r="BD16" s="3">
-        <f t="shared" si="40"/>
-        <v>391.32663540491228</v>
+        <f t="shared" si="45"/>
+        <v>372.00356580695535</v>
       </c>
       <c r="BE16" s="3">
-        <f t="shared" si="40"/>
-        <v>371.76030363466663</v>
+        <f t="shared" si="45"/>
+        <v>353.40338751660755</v>
       </c>
       <c r="BF16" s="3">
-        <f t="shared" si="40"/>
-        <v>353.17228845293329</v>
+        <f t="shared" si="45"/>
+        <v>335.73321814077718</v>
       </c>
       <c r="BG16" s="3">
-        <f t="shared" si="40"/>
-        <v>335.51367403028661</v>
+        <f t="shared" si="45"/>
+        <v>318.9465572337383</v>
       </c>
       <c r="BH16" s="3">
-        <f t="shared" si="40"/>
-        <v>318.73799032877224</v>
+        <f t="shared" si="45"/>
+        <v>302.99922937205139</v>
       </c>
       <c r="BI16" s="3">
-        <f t="shared" si="40"/>
-        <v>302.8010908123336</v>
+        <f t="shared" si="45"/>
+        <v>287.84926790344883</v>
       </c>
       <c r="BJ16" s="3">
-        <f t="shared" si="40"/>
-        <v>287.66103627171691</v>
+        <f t="shared" si="45"/>
+        <v>273.45680450827638</v>
       </c>
       <c r="BK16" s="3">
-        <f t="shared" si="40"/>
-        <v>273.27798445813107</v>
+        <f t="shared" si="45"/>
+        <v>259.78396428286254</v>
       </c>
       <c r="BL16" s="3">
-        <f t="shared" si="40"/>
-        <v>259.61408523522448</v>
+        <f t="shared" si="45"/>
+        <v>246.79476606871941</v>
       </c>
       <c r="BM16" s="3">
-        <f t="shared" si="40"/>
-        <v>246.63338097346323</v>
+        <f t="shared" si="45"/>
+        <v>234.45502776528343</v>
       </c>
       <c r="BN16" s="3">
-        <f t="shared" si="40"/>
-        <v>234.30171192479006</v>
+        <f t="shared" si="45"/>
+        <v>222.73227637701925</v>
       </c>
       <c r="BO16" s="3">
-        <f t="shared" si="40"/>
-        <v>222.58662632855055</v>
+        <f t="shared" si="45"/>
+        <v>211.59566255816827</v>
       </c>
       <c r="BP16" s="3">
-        <f t="shared" si="40"/>
-        <v>211.45729501212301</v>
+        <f t="shared" si="45"/>
+        <v>201.01587943025984</v>
       </c>
       <c r="BQ16" s="3">
-        <f t="shared" si="40"/>
-        <v>200.88443026151685</v>
+        <f t="shared" si="45"/>
+        <v>190.96508545874684</v>
       </c>
       <c r="BR16" s="3">
-        <f t="shared" si="40"/>
-        <v>190.840208748441</v>
+        <f t="shared" si="45"/>
+        <v>181.41683118580949</v>
       </c>
       <c r="BS16" s="3">
-        <f t="shared" si="40"/>
-        <v>181.29819831101895</v>
+        <f t="shared" si="45"/>
+        <v>172.34598962651901</v>
       </c>
       <c r="BT16" s="3">
-        <f t="shared" si="40"/>
-        <v>172.23328839546801</v>
+        <f t="shared" si="45"/>
+        <v>163.72869014519304</v>
       </c>
       <c r="BU16" s="3">
-        <f t="shared" si="40"/>
-        <v>163.6216239756946</v>
+        <f t="shared" si="45"/>
+        <v>155.54225563793338</v>
       </c>
       <c r="BV16" s="3">
-        <f t="shared" si="40"/>
-        <v>155.44054277690987</v>
+        <f t="shared" si="45"/>
+        <v>147.7651428560367</v>
       </c>
       <c r="BW16" s="3">
-        <f t="shared" si="40"/>
-        <v>147.66851563806438</v>
+        <f t="shared" si="45"/>
+        <v>140.37688571323486</v>
       </c>
       <c r="BX16" s="3">
-        <f t="shared" si="40"/>
-        <v>140.28508985616116</v>
+        <f t="shared" si="45"/>
+        <v>133.35804142757311</v>
       </c>
       <c r="BY16" s="3">
-        <f t="shared" si="40"/>
-        <v>133.27083536335309</v>
+        <f t="shared" si="45"/>
+        <v>126.69013935619445</v>
       </c>
       <c r="BZ16" s="3">
-        <f t="shared" si="40"/>
-        <v>126.60729359518542</v>
+        <f t="shared" si="45"/>
+        <v>120.35563238838472</v>
       </c>
       <c r="CA16" s="3">
-        <f t="shared" si="40"/>
-        <v>120.27692891542615</v>
+        <f t="shared" si="45"/>
+        <v>114.33785076896548</v>
       </c>
       <c r="CB16" s="3">
-        <f t="shared" si="40"/>
-        <v>114.26308246965485</v>
+        <f t="shared" si="45"/>
+        <v>108.6209582305172</v>
       </c>
       <c r="CC16" s="3">
-        <f t="shared" si="40"/>
-        <v>108.54992834617209</v>
+        <f t="shared" si="45"/>
+        <v>103.18991031899134</v>
       </c>
       <c r="CD16" s="3">
-        <f t="shared" si="40"/>
-        <v>103.12243192886349</v>
+        <f t="shared" si="45"/>
+        <v>98.030414803041765</v>
       </c>
       <c r="CE16" s="3">
-        <f t="shared" si="40"/>
-        <v>97.966310332420306</v>
+        <f t="shared" si="45"/>
+        <v>93.128894062889671</v>
       </c>
       <c r="CF16" s="3">
-        <f t="shared" si="40"/>
-        <v>93.067994815799281</v>
+        <f t="shared" si="45"/>
+        <v>88.472449359745184</v>
       </c>
       <c r="CG16" s="3">
-        <f t="shared" si="40"/>
-        <v>88.414595075009316</v>
+        <f t="shared" si="45"/>
+        <v>84.048826891757926</v>
       </c>
       <c r="CH16" s="3">
-        <f t="shared" ref="CH16:DJ16" si="41">CG16*(1+$W$19)</f>
-        <v>83.993865321258852</v>
+        <f t="shared" ref="CH16:DJ16" si="46">CG16*(1+$W$19)</f>
+        <v>79.84638554717003</v>
       </c>
       <c r="CI16" s="3">
-        <f t="shared" si="41"/>
-        <v>79.794172055195901</v>
+        <f t="shared" si="46"/>
+        <v>75.854066269811526</v>
       </c>
       <c r="CJ16" s="3">
-        <f t="shared" si="41"/>
-        <v>75.804463452436096</v>
+        <f t="shared" si="46"/>
+        <v>72.061362956320949</v>
       </c>
       <c r="CK16" s="3">
-        <f t="shared" si="41"/>
-        <v>72.014240279814288</v>
+        <f t="shared" si="46"/>
+        <v>68.458294808504903</v>
       </c>
       <c r="CL16" s="3">
-        <f t="shared" si="41"/>
-        <v>68.413528265823572</v>
+        <f t="shared" si="46"/>
+        <v>65.035380068079661</v>
       </c>
       <c r="CM16" s="3">
-        <f t="shared" si="41"/>
-        <v>64.992851852532397</v>
+        <f t="shared" si="46"/>
+        <v>61.783611064675675</v>
       </c>
       <c r="CN16" s="3">
-        <f t="shared" si="41"/>
-        <v>61.743209259905775</v>
+        <f t="shared" si="46"/>
+        <v>58.694430511441887</v>
       </c>
       <c r="CO16" s="3">
-        <f t="shared" si="41"/>
-        <v>58.656048796910483</v>
+        <f t="shared" si="46"/>
+        <v>55.759708985869793</v>
       </c>
       <c r="CP16" s="3">
-        <f t="shared" si="41"/>
-        <v>55.723246357064959</v>
+        <f t="shared" si="46"/>
+        <v>52.971723536576299</v>
       </c>
       <c r="CQ16" s="3">
-        <f t="shared" si="41"/>
-        <v>52.937084039211712</v>
+        <f t="shared" si="46"/>
+        <v>50.323137359747484</v>
       </c>
       <c r="CR16" s="3">
-        <f t="shared" si="41"/>
-        <v>50.290229837251125</v>
+        <f t="shared" si="46"/>
+        <v>47.806980491760108</v>
       </c>
       <c r="CS16" s="3">
-        <f t="shared" si="41"/>
-        <v>47.775718345388569</v>
+        <f t="shared" si="46"/>
+        <v>45.416631467172103</v>
       </c>
       <c r="CT16" s="3">
-        <f t="shared" si="41"/>
-        <v>45.386932428119138</v>
+        <f t="shared" si="46"/>
+        <v>43.145799893813496</v>
       </c>
       <c r="CU16" s="3">
-        <f t="shared" si="41"/>
-        <v>43.11758580671318</v>
+        <f t="shared" si="46"/>
+        <v>40.988509899122818</v>
       </c>
       <c r="CV16" s="3">
-        <f t="shared" si="41"/>
-        <v>40.961706516377518</v>
+        <f t="shared" si="46"/>
+        <v>38.939084404166678</v>
       </c>
       <c r="CW16" s="3">
-        <f t="shared" si="41"/>
-        <v>38.913621190558644</v>
+        <f t="shared" si="46"/>
+        <v>36.992130183958345</v>
       </c>
       <c r="CX16" s="3">
-        <f t="shared" si="41"/>
-        <v>36.967940131030709</v>
+        <f t="shared" si="46"/>
+        <v>35.142523674760426</v>
       </c>
       <c r="CY16" s="3">
-        <f t="shared" si="41"/>
-        <v>35.119543124479172</v>
+        <f t="shared" si="46"/>
+        <v>33.385397491022403</v>
       </c>
       <c r="CZ16" s="3">
-        <f t="shared" si="41"/>
-        <v>33.363565968255209</v>
+        <f t="shared" si="46"/>
+        <v>31.71612761647128</v>
       </c>
       <c r="DA16" s="3">
-        <f t="shared" si="41"/>
-        <v>31.695387669842447</v>
+        <f t="shared" si="46"/>
+        <v>30.130321235647713</v>
       </c>
       <c r="DB16" s="3">
-        <f t="shared" si="41"/>
-        <v>30.110618286350324</v>
+        <f t="shared" si="46"/>
+        <v>28.623805173865325</v>
       </c>
       <c r="DC16" s="3">
-        <f t="shared" si="41"/>
-        <v>28.605087372032806</v>
+        <f t="shared" si="46"/>
+        <v>27.192614915172058</v>
       </c>
       <c r="DD16" s="3">
-        <f t="shared" si="41"/>
-        <v>27.174833003431164</v>
+        <f t="shared" si="46"/>
+        <v>25.832984169413454</v>
       </c>
       <c r="DE16" s="3">
-        <f t="shared" si="41"/>
-        <v>25.816091353259605</v>
+        <f t="shared" si="46"/>
+        <v>24.54133496094278</v>
       </c>
       <c r="DF16" s="3">
-        <f t="shared" si="41"/>
-        <v>24.525286785596624</v>
+        <f t="shared" si="46"/>
+        <v>23.314268212895641</v>
       </c>
       <c r="DG16" s="3">
-        <f t="shared" si="41"/>
-        <v>23.299022446316791</v>
+        <f t="shared" si="46"/>
+        <v>22.148554802250857</v>
       </c>
       <c r="DH16" s="3">
-        <f t="shared" si="41"/>
-        <v>22.134071324000949</v>
+        <f t="shared" si="46"/>
+        <v>21.041127062138312</v>
       </c>
       <c r="DI16" s="3">
-        <f t="shared" si="41"/>
-        <v>21.027367757800899</v>
+        <f t="shared" si="46"/>
+        <v>19.989070709031395</v>
       </c>
       <c r="DJ16" s="3">
-        <f t="shared" si="41"/>
-        <v>19.975999369910852</v>
+        <f t="shared" si="46"/>
+        <v>18.989617173579823</v>
       </c>
     </row>
     <row r="17" spans="1:117" x14ac:dyDescent="0.2">
@@ -2021,46 +2041,46 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="4" t="e">
-        <f t="shared" ref="L18:T18" si="42">L16/L17</f>
+        <f t="shared" ref="L18:T18" si="47">L16/L17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1.3117857142857143</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>2.4958407079646014</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>-2.1805225653203562E-2</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="42"/>
-        <v>2.3733088242411853</v>
+        <f t="shared" si="47"/>
+        <v>2.2326139955491335</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="42"/>
-        <v>4.3453716344298599</v>
+        <f t="shared" si="47"/>
+        <v>4.1178931277200155</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="42"/>
-        <v>6.5734118473924648</v>
+        <f t="shared" si="47"/>
+        <v>6.2681680165874578</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="42"/>
-        <v>9.0442651811996573</v>
+        <f t="shared" si="47"/>
+        <v>8.6226421783488085</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="42"/>
-        <v>11.782501896119383</v>
+        <f t="shared" si="47"/>
+        <v>11.200701212040736</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="W18" s="5">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:117" x14ac:dyDescent="0.2">
@@ -2092,43 +2112,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K20" s="6" t="e">
-        <f t="shared" ref="K20:T20" si="43">K6/J6-1</f>
+        <f t="shared" ref="K20:T20" si="48">K6/J6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.14213968120285836</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.13813267546832231</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.10319579918203603</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>8.5681716324302215E-2</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>8.574409012925055E-2</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>8.5805803961447547E-2</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>8.5866857825885656E-2</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -2159,15 +2179,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21:I21" si="44">G6/F6-1</f>
+        <f t="shared" ref="G21:I21" si="49">G6/F6-1</f>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="K21" s="6"/>
@@ -2226,19 +2246,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="7" t="e">
-        <f t="shared" ref="L22:O22" si="45">L15/L14</f>
+        <f t="shared" ref="L22:O22" si="50">L15/L14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.39074001119658291</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.29550620737891242</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1.0164262963890753</v>
       </c>
       <c r="P22" s="7">
@@ -2259,7 +2279,7 @@
       <c r="V22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="4">
         <f>W21/Sheet1!D3</f>
         <v>81.262180544799918</v>
       </c>
@@ -2270,7 +2290,7 @@
       </c>
       <c r="W23" s="7">
         <f>W22/Sheet1!D2-1</f>
-        <v>0.37732509397965952</v>
+        <v>0.23124515976969562</v>
       </c>
     </row>
     <row r="24" spans="1:117" x14ac:dyDescent="0.2">
@@ -2282,71 +2302,71 @@
         <v>7.6400345850956966E-2</v>
       </c>
       <c r="C24" s="7" t="e">
-        <f t="shared" ref="C24:I24" si="46">C11/C6</f>
+        <f t="shared" ref="C24:I24" si="51">C11/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="7" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="7" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.20577697568389064</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.20577697568389064</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.20577697568389053</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0.20577697568389036</v>
       </c>
       <c r="K24" s="7" t="e">
-        <f t="shared" ref="K24:T24" si="47">K11/K6</f>
+        <f t="shared" ref="K24:T24" si="52">K11/K6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="7" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.13763143879813228</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.17480684251904463</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>8.8203838284230864E-3</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999964E-2</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.18999999999999997</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.27099999999999991</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.34389999999999987</v>
       </c>
       <c r="T24" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.40950999999999976</v>
       </c>
     </row>
@@ -2369,11 +2389,11 @@
         <v>0.27623512218080032</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" ref="N25:O25" si="48">N30/N6</f>
+        <f t="shared" ref="N25:O25" si="53">N30/N6</f>
         <v>0.1257895735625017</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>5.9344056900169827E-2</v>
       </c>
       <c r="P25" s="7">
@@ -2384,15 +2404,15 @@
         <v>0.18</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" ref="R25:T25" si="49">Q25*1.2</f>
+        <f t="shared" ref="R25:T25" si="54">Q25*1.2</f>
         <v>0.216</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0.25919999999999999</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0.31103999999999998</v>
       </c>
     </row>
@@ -2415,11 +2435,11 @@
         <v>0.86236856120186767</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" ref="N26:O26" si="50">N10/N6</f>
+        <f t="shared" ref="N26:O26" si="55">N10/N6</f>
         <v>0.82519315748095534</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.9911796161715769</v>
       </c>
       <c r="P26" s="7">
@@ -2430,15 +2450,15 @@
         <v>0.81</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" ref="R26:T26" si="51">Q26*0.9</f>
+        <f t="shared" ref="R26:T26" si="56">Q26*0.9</f>
         <v>0.72900000000000009</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.65610000000000013</v>
       </c>
       <c r="T26" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0.59049000000000018</v>
       </c>
     </row>
@@ -2482,11 +2502,11 @@
         <v>892.1400000000001</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" ref="N30:O30" si="52">N28-N29</f>
+        <f t="shared" ref="N30:O30" si="57">N28-N29</f>
         <v>464</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>249.14</v>
       </c>
       <c r="P30" s="3">
@@ -2494,19 +2514,19 @@
         <v>694.7204549999999</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" ref="Q30:T30" si="53">Q25*Q6</f>
+        <f t="shared" ref="Q30:T30" si="58">Q25*Q6</f>
         <v>905.09435514000006</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>1179.2410165231202</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>1536.5120880122413</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>2002.1370636256117</v>
       </c>
       <c r="U30" s="3">
@@ -2514,387 +2534,387 @@
         <v>1902.030210444331</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" ref="V30:CG30" si="54">U30*(1+$W$19)</f>
+        <f t="shared" ref="V30:CG30" si="59">U30*(1+$W$19)</f>
         <v>1806.9286999221144</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1716.5822649260087</v>
       </c>
       <c r="X30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1630.7531516797083</v>
       </c>
       <c r="Y30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1549.2154940957228</v>
       </c>
       <c r="Z30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1471.7547193909365</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1398.1669834213897</v>
       </c>
       <c r="AB30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1328.25863425032</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1261.8457025378041</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1198.7534174109139</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1138.8157465403681</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1081.8749592133497</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>1027.7812112526822</v>
       </c>
       <c r="AH30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>976.39215069004797</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>927.57254315554553</v>
       </c>
       <c r="AJ30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>881.19391599776816</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>837.1342201978797</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>795.27750918798563</v>
       </c>
       <c r="AM30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>755.51363372858634</v>
       </c>
       <c r="AN30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>717.73795204215696</v>
       </c>
       <c r="AO30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>681.8510544400491</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>647.75850171804666</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>615.37057663214432</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>584.60204780053709</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>555.37194541051019</v>
       </c>
       <c r="AT30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>527.60334813998463</v>
       </c>
       <c r="AU30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>501.22318073298538</v>
       </c>
       <c r="AV30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>476.16202169633607</v>
       </c>
       <c r="AW30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>452.35392061151924</v>
       </c>
       <c r="AX30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>429.73622458094326</v>
       </c>
       <c r="AY30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>408.24941335189607</v>
       </c>
       <c r="AZ30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>387.83694268430122</v>
       </c>
       <c r="BA30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>368.44509555008614</v>
       </c>
       <c r="BB30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>350.02284077258179</v>
       </c>
       <c r="BC30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>332.52169873395269</v>
       </c>
       <c r="BD30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>315.89561379725507</v>
       </c>
       <c r="BE30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>300.1008331073923</v>
       </c>
       <c r="BF30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>285.0957914520227</v>
       </c>
       <c r="BG30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>270.84100187942153</v>
       </c>
       <c r="BH30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>257.29895178545041</v>
       </c>
       <c r="BI30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>244.43400419617788</v>
       </c>
       <c r="BJ30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>232.21230398636897</v>
       </c>
       <c r="BK30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>220.60168878705051</v>
       </c>
       <c r="BL30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>209.57160434769798</v>
       </c>
       <c r="BM30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>199.09302413031307</v>
       </c>
       <c r="BN30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>189.13837292379742</v>
       </c>
       <c r="BO30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>179.68145427760754</v>
       </c>
       <c r="BP30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>170.69738156372716</v>
       </c>
       <c r="BQ30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>162.16251248554079</v>
       </c>
       <c r="BR30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>154.05438686126374</v>
       </c>
       <c r="BS30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>146.35166751820054</v>
       </c>
       <c r="BT30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>139.03408414229051</v>
       </c>
       <c r="BU30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>132.08237993517596</v>
       </c>
       <c r="BV30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>125.47826093841716</v>
       </c>
       <c r="BW30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>119.2043478914963</v>
       </c>
       <c r="BX30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>113.24413049692147</v>
       </c>
       <c r="BY30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>107.58192397207539</v>
       </c>
       <c r="BZ30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>102.20282777347161</v>
       </c>
       <c r="CA30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>97.092686384798029</v>
       </c>
       <c r="CB30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>92.238052065558122</v>
       </c>
       <c r="CC30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>87.62614946228021</v>
       </c>
       <c r="CD30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>83.24484198916619</v>
       </c>
       <c r="CE30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>79.082599889707879</v>
       </c>
       <c r="CF30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>75.12846989522248</v>
       </c>
       <c r="CG30" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>71.372046400461358</v>
       </c>
       <c r="CH30" s="3">
-        <f t="shared" ref="CH30:DM30" si="55">CG30*(1+$W$19)</f>
+        <f t="shared" ref="CH30:DM30" si="60">CG30*(1+$W$19)</f>
         <v>67.803444080438283</v>
       </c>
       <c r="CI30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>64.41327187641636</v>
       </c>
       <c r="CJ30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>61.192608282595536</v>
       </c>
       <c r="CK30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>58.132977868465758</v>
       </c>
       <c r="CL30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>55.22632897504247</v>
       </c>
       <c r="CM30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>52.465012526290344</v>
       </c>
       <c r="CN30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>49.841761899975822</v>
       </c>
       <c r="CO30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>47.34967380497703</v>
       </c>
       <c r="CP30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>44.982190114728176</v>
       </c>
       <c r="CQ30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>42.733080608991763</v>
       </c>
       <c r="CR30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>40.596426578542172</v>
       </c>
       <c r="CS30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>38.566605249615058</v>
       </c>
       <c r="CT30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>36.638274987134302</v>
       </c>
       <c r="CU30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>34.806361237777587</v>
       </c>
       <c r="CV30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>33.066043175888709</v>
       </c>
       <c r="CW30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>31.412741017094273</v>
       </c>
       <c r="CX30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>29.842103966239559</v>
       </c>
       <c r="CY30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>28.34999876792758</v>
       </c>
       <c r="CZ30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>26.932498829531202</v>
       </c>
       <c r="DA30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>25.585873888054639</v>
       </c>
       <c r="DB30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>24.306580193651907</v>
       </c>
       <c r="DC30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>23.091251183969312</v>
       </c>
       <c r="DD30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>21.936688624770845</v>
       </c>
       <c r="DE30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>20.8398541935323</v>
       </c>
       <c r="DF30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>19.797861483855684</v>
       </c>
       <c r="DG30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>18.807968409662898</v>
       </c>
       <c r="DH30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>17.867569989179753</v>
       </c>
       <c r="DI30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>16.974191489720763</v>
       </c>
       <c r="DJ30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>16.125481915234722</v>
       </c>
       <c r="DK30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>15.319207819472986</v>
       </c>
       <c r="DL30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>14.553247428499336</v>
       </c>
       <c r="DM30" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>13.825585057074369</v>
       </c>
     </row>
@@ -2908,15 +2928,15 @@
       </c>
       <c r="G32" s="1">
         <f>F32+G16</f>
-        <v>2413.1263512</v>
+        <v>2404.4343761999999</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" ref="H32:I32" si="56">G32+H16</f>
-        <v>2645.06186301972</v>
+        <f t="shared" ref="H32:I32" si="61">G32+H16</f>
+        <v>2626.7693723299799</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="56"/>
-        <v>2898.0464074647234</v>
+        <f t="shared" si="61"/>
+        <v>2869.1614117396066</v>
       </c>
       <c r="O32" s="1">
         <f>O34-O36</f>
@@ -2924,23 +2944,23 @@
       </c>
       <c r="P32" s="1">
         <f>I32</f>
-        <v>2898.0464074647234</v>
+        <v>2869.1614117396066</v>
       </c>
       <c r="Q32" s="1">
         <f>P32+Q16</f>
-        <v>3812.7471365122092</v>
+        <v>3735.9779151246698</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" ref="R32:T32" si="57">Q32+R16</f>
-        <v>5196.450330388323</v>
+        <f t="shared" ref="R32:T32" si="62">Q32+R16</f>
+        <v>5055.4272826163296</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="57"/>
-        <v>7100.2681510308503</v>
+        <f t="shared" si="62"/>
+        <v>6870.4934611587541</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="57"/>
-        <v>9580.4848001639803</v>
+        <f t="shared" si="62"/>
+        <v>9228.2410662933289</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
